--- a/xlsx/心理學_intext.xlsx
+++ b/xlsx/心理學_intext.xlsx
@@ -29,7 +29,7 @@
     <t>心理学大纲</t>
   </si>
   <si>
-    <t>政策_政策_政治學_心理學</t>
+    <t>体育运动_体育运动_运动科学_心理學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
